--- a/medicine/Enfance/Prix_Amerigo-Vespucci/Prix_Amerigo-Vespucci.xlsx
+++ b/medicine/Enfance/Prix_Amerigo-Vespucci/Prix_Amerigo-Vespucci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Amerigo-Vespucci  est un prix littéraire français créé en 1990, lors du premier Festival international de géographie (FIG) de Saint-Dié-des-Vosges. Il récompense des ouvrages portant sur le thème de l'aventure et du voyage et fait référence au navigateur italien Amerigo Vespucci.
@@ -513,7 +525,9 @@
           <t>Lauréats du prix Amerigo-Vespucci</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1990 : Claude Le Borgne, La Prison nomade (François Bourin).
 1991 : Pierre-Jean Remy, Chine (Albin Michel).
@@ -554,7 +568,7 @@
 2020 : Sandrine Collette, Et toujours les forêts, (Éditions Jean-Claude Lattès).
 2021 : Luc Bronner, Chaudun, la montagne blessée, (Seuil).
 2022 : Fabien Truong, La taille des arbres (Rivages).
-2023 : Feurat Alani, Je me souviens de Falloujah (J.C.Lattès)[1].
+2023 : Feurat Alani, Je me souviens de Falloujah (J.C.Lattès).
 			Marc Durin-Vallois (2003).
 			Bernard Giraudeau (2007).
 			Isabelle Autissier (2009).
@@ -590,7 +604,9 @@
           <t>Lauréats du prix Amerigo-Vespucci Jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1990 : John Howe et Gérard Jaegger, Amerigo Vespucci (La Joie de lire).
 1991 : Sylvie Girardet, Claire Merleau-Ponty et Anne Tardy, Les Routes de la soie (Bayard).
@@ -625,7 +641,7 @@
 2020 : Séraphine Menu, Biomimétisme, (La Pastèque).
 2021 : Julieta Canepa, Pierre Ducrozet et Stéphane Khiel, Je suis au monde, (Actes Sud junior).
 2022 : Eva Bensard et Daniele Castelli, Hokusai et le Fujisan (Amaterra)
-2023 : Ingrid Thobois et Pascale Breysse (d) , Histoire de se laver (Kilowatt)[1].
+2023 : Ingrid Thobois et Pascale Breysse (d) , Histoire de se laver (Kilowatt).
 			Jean-Philippe Blondel (2011).
 			Nathalie Novi, co-lauréate avec Daniel Picouly (2014).
 			Fleur Daugey, co-lauréate 2015.
@@ -660,7 +676,9 @@
           <t>Lauréats du prix Amerigo-Vespucci de la BD géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2018 : Bruno Duhamel Jamais (Grand angle).
 2019 : Pierre-Henry Gomont Malaterre (Dargaud).
@@ -669,7 +687,7 @@
 Pierre Bonneau, Gaspard d'Allens et Cécile Guillard, Cent mille ans, (Seuil) ;
 Fabien Tillon et Gaël Remise, Roi du vent (La Boîte à bulles).
 2022 :  Étienne Davodeau, Le droit du sol (Futuropolis)
-2023 : Rosalie Stroesser, Shiki – 4 saisons au Japon (Payot Rivages)[1].</t>
+2023 : Rosalie Stroesser, Shiki – 4 saisons au Japon (Payot Rivages).</t>
         </is>
       </c>
     </row>
